--- a/originales/respuestas/2025/01. Calificadas/Alcaldía Local De Barrios Unidos.xlsx
+++ b/originales/respuestas/2025/01. Calificadas/Alcaldía Local De Barrios Unidos.xlsx
@@ -1,39 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Desktop\Respuesta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891291A2-C9A7-492C-BE79-8061AC13913F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{61CCE0CF-AD1F-450B-B0AC-9AFFE8214C2E}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="C1" sheetId="2" r:id="rId2"/>
-    <sheet name="C2" sheetId="3" r:id="rId3"/>
-    <sheet name="C3" sheetId="4" r:id="rId4"/>
-    <sheet name="C4" sheetId="5" r:id="rId5"/>
+    <sheet name="C1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="C2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="C3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="C4" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -42,578 +25,573 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="172">
   <si>
-    <t>Entidad</t>
-  </si>
-  <si>
-    <t>id pregunta</t>
-  </si>
-  <si>
-    <t>orden</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>componente</t>
-  </si>
-  <si>
-    <t>Pregunta</t>
-  </si>
-  <si>
-    <t>Tipo pregunta</t>
-  </si>
-  <si>
-    <t>Respuesta</t>
-  </si>
-  <si>
-    <t>Criterio 1</t>
-  </si>
-  <si>
-    <t>N C1</t>
-  </si>
-  <si>
-    <t>Criterio 2</t>
-  </si>
-  <si>
-    <t>N C2</t>
-  </si>
-  <si>
-    <t>Criterio 3</t>
-  </si>
-  <si>
-    <t>N C3</t>
-  </si>
-  <si>
-    <t>Criterio 4</t>
-  </si>
-  <si>
-    <t>N C4</t>
-  </si>
-  <si>
-    <t>Criterio 5</t>
-  </si>
-  <si>
-    <t>N C5</t>
-  </si>
-  <si>
-    <t>Alcaldía Local De Barrios Unidos</t>
-  </si>
-  <si>
-    <t>Pregunta 1.</t>
-  </si>
-  <si>
-    <t>Variable 1</t>
-  </si>
-  <si>
-    <t>COMPONENTE 1.</t>
-  </si>
-  <si>
-    <t>¿En su entidad existen o existieron decretos, resoluciones, circulares u otros actos administrativos relacionados con el concepto de innovación pública?</t>
-  </si>
-  <si>
-    <t>Raiz</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Base por afirmativo (5 puntos si respondió que sí)</t>
-  </si>
-  <si>
-    <t>Crecimiento relativo a medición inmediatamente anterior</t>
-  </si>
-  <si>
-    <t>Diversidad normativa</t>
-  </si>
-  <si>
-    <t>Acto puesto en marcha en rango de medición</t>
-  </si>
-  <si>
-    <t>Promedio de bucle (Autocómputo)</t>
-  </si>
-  <si>
-    <t>Pregunta 2.</t>
-  </si>
-  <si>
-    <t>¿La planeación estratégica de su entidad incluye enfoques, líneas, componentes, planes, programas, proyectos de inversión u otros relacionados con la innovación pública?</t>
-  </si>
-  <si>
-    <t>Pregunta 3.</t>
-  </si>
-  <si>
-    <t>Variable 2</t>
-  </si>
-  <si>
-    <t>Ingrese el presupuesto de funcionamiento total de su entidad para 2023</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>$2.792.217.383</t>
-  </si>
-  <si>
-    <t>Revisión de normalidad interna (entre los dos años de la misma entidad)</t>
-  </si>
-  <si>
-    <t>Comparación con el promedio distrital</t>
-  </si>
-  <si>
-    <t>Estabilidad histórica (volatilidad)</t>
-  </si>
-  <si>
-    <t>Proporción del presupuesto ejecutado vs. aprobado</t>
-  </si>
-  <si>
-    <t>Tendencia positiva en el tiempo</t>
-  </si>
-  <si>
-    <t>Ingrese el presupuesto de funcionamiento total de su entidad para 2024</t>
-  </si>
-  <si>
-    <t>numero</t>
-  </si>
-  <si>
-    <t>$2.973.298.567</t>
-  </si>
-  <si>
-    <t>¿Cuál fue el valor del presupuesto general de funcionamiento ejecutado de su entidad?</t>
-  </si>
-  <si>
-    <t>Soporte</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Presupuesto 2023-2024.zip</t>
-    </r>
-  </si>
-  <si>
-    <t>Pregunta 4.</t>
-  </si>
-  <si>
-    <t>Ingrese el presupuesto de funcionamiento ejecutado en innovación para 2023.</t>
-  </si>
-  <si>
-    <t>Indique los objetos bajo los cuales se ejecutó el gasto en innovación para 2023.</t>
-  </si>
-  <si>
-    <t>texto</t>
-  </si>
-  <si>
-    <t>Ninguna en términos de innovación</t>
-  </si>
-  <si>
-    <t>Diversidad</t>
-  </si>
-  <si>
-    <t>Pertinencia estratégica</t>
-  </si>
-  <si>
-    <t>Uso efectivo de los recursos</t>
-  </si>
-  <si>
-    <t>Actualización y vigencia tecnológica</t>
-  </si>
-  <si>
-    <t>Pregunta 5.</t>
-  </si>
-  <si>
-    <t>Ingrese el presupuesto de inversión total de su entidad para 2023.</t>
-  </si>
-  <si>
-    <t>$48.017.976.361</t>
-  </si>
-  <si>
-    <t>Ingrese el presupuesto de inversión total de su entidad para 2024.</t>
-  </si>
-  <si>
-    <t>$60.901.551.626</t>
-  </si>
-  <si>
-    <t>Discrimine por año.</t>
-  </si>
-  <si>
-    <t>soporte</t>
-  </si>
-  <si>
-    <t>Pregunta 6.</t>
-  </si>
-  <si>
-    <t>Presupuesto 2023</t>
-  </si>
-  <si>
-    <t>Pregunta 8.</t>
-  </si>
-  <si>
-    <t>Variable 3</t>
-  </si>
-  <si>
-    <t>Total de funcionarios para 2023 relacionados directamente con la innovación.</t>
-  </si>
-  <si>
-    <t>Pregunta 9.</t>
-  </si>
-  <si>
-    <t>Total de colaboradores para 2023.</t>
-  </si>
-  <si>
-    <t>Total de colaboradores para 2024.</t>
-  </si>
-  <si>
-    <t>Pregunta 10.</t>
-  </si>
-  <si>
-    <t>Total de colaboradores para 2023 relacionados directamente con la innovación.</t>
-  </si>
-  <si>
-    <t>Total de colaboradores para 2024 relacionados directamente con la innovación</t>
-  </si>
-  <si>
-    <t>Pregunta 11.</t>
-  </si>
-  <si>
-    <t>Variable 4</t>
-  </si>
-  <si>
-    <t>¿Su entidad adquirió recursos digitales como habilitantes de la innovación?</t>
-  </si>
-  <si>
-    <t>Pregunta 12.</t>
-  </si>
-  <si>
-    <t>¿Su entidad ha utilizado alguna herramienta de Inteligencia Artificial en alguno de sus procesos o actividades?</t>
-  </si>
-  <si>
-    <t>Pregunta 13.</t>
-  </si>
-  <si>
-    <t>Políticas y regulaciones: ¿Cuenta la entidad con lineamientos o protocolos específicos para el uso ético y transparente de la IA?</t>
-  </si>
-  <si>
-    <t>Orden</t>
-  </si>
-  <si>
-    <t>Pregunta 14.</t>
-  </si>
-  <si>
-    <t>Variable 5</t>
-  </si>
-  <si>
-    <t>COMPONENTE 2.</t>
-  </si>
-  <si>
-    <t>¿Su entidad encontró retos o áreas de oportunidad para abordar desde la innovación gracias a "Bogotá te Escucha"?</t>
-  </si>
-  <si>
-    <t>raiz</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Pregunta 15.</t>
-  </si>
-  <si>
-    <t>¿Su entidad identificó retos o áreas de oportunidad desde la ciudadanía por canales diferentes a "Bogotá te Escucha"?</t>
-  </si>
-  <si>
-    <t>Pregunta 16.</t>
-  </si>
-  <si>
-    <t>¿Su entidad identificó retos o áreas de oportunidad desde los funcionarios y/o contratistas?</t>
-  </si>
-  <si>
-    <t>Pregunta 17.</t>
-  </si>
-  <si>
-    <t>¿Cuáles fueron los canales internos y externos para la identificación de problemáticas o desafíos a resolver desde la innovación?</t>
-  </si>
-  <si>
-    <t>Pregunta 18.</t>
-  </si>
-  <si>
-    <t>¿Cuáles estrategias implementó su entidad para la identificación de problemáticas o desafíos a resolver desde la innovación?</t>
-  </si>
-  <si>
-    <t>Pregunta 19.</t>
-  </si>
-  <si>
-    <t>Variable 6</t>
-  </si>
-  <si>
-    <t>¿Qué criterios utiliza su entidad para priorizar las áreas de oportunidad identificadas que pueden ser abordadas con innovación?</t>
-  </si>
-  <si>
-    <t>Viabilidad de implementación de soluciones
+    <t xml:space="preserve">Entidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id pregunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">componente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo pregunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respuesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcaldía Local De Barrios Unidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPONENTE 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿En su entidad existen o existieron decretos, resoluciones, circulares u otros actos administrativos relacionados con el concepto de innovación pública?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base por afirmativo (5 puntos si respondió que sí)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crecimiento relativo a medición inmediatamente anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversidad normativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acto puesto en marcha en rango de medición</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promedio de bucle (Autocómputo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La planeación estratégica de su entidad incluye enfoques, líneas, componentes, planes, programas, proyectos de inversión u otros relacionados con la innovación pública?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el presupuesto de funcionamiento total de su entidad para 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2.792.217.383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisión de normalidad interna (entre los dos años de la misma entidad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparación con el promedio distrital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estabilidad histórica (volatilidad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proporción del presupuesto ejecutado vs. aprobado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendencia positiva en el tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el presupuesto de funcionamiento total de su entidad para 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2.973.298.567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuál fue el valor del presupuesto general de funcionamiento ejecutado de su entidad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto 2023-2024.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el presupuesto de funcionamiento ejecutado en innovación para 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indique los objetos bajo los cuales se ejecutó el gasto en innovación para 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninguna en términos de innovación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pertinencia estratégica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso efectivo de los recursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualización y vigencia tecnológica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el presupuesto de inversión total de su entidad para 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$48.017.976.361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el presupuesto de inversión total de su entidad para 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$60.901.551.626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrimine por año.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de funcionarios para 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de funcionarios para 2023 relacionados directamente con la innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de colaboradores para 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de colaboradores para 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de colaboradores para 2023 relacionados directamente con la innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de colaboradores para 2024 relacionados directamente con la innovación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad adquirió recursos digitales como habilitantes de la innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad ha utilizado alguna herramienta de Inteligencia Artificial en alguno de sus procesos o actividades?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 13.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticas y regulaciones: ¿Cuenta la entidad con lineamientos o protocolos específicos para el uso ético y transparente de la IA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPONENTE 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad encontró retos o áreas de oportunidad para abordar desde la innovación gracias a "Bogotá te Escucha"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 15.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad identificó retos o áreas de oportunidad desde la ciudadanía por canales diferentes a "Bogotá te Escucha"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 16.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad identificó retos o áreas de oportunidad desde los funcionarios y/o contratistas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 17.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles fueron los canales internos y externos para la identificación de problemáticas o desafíos a resolver desde la innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles estrategias implementó su entidad para la identificación de problemáticas o desafíos a resolver desde la innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué criterios utiliza su entidad para priorizar las áreas de oportunidad identificadas que pueden ser abordadas con innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viabilidad de implementación de soluciones
  innovadoras., Demanda de la ciudadanía o de actores externos</t>
   </si>
   <si>
-    <t>Pregunta 20.</t>
-  </si>
-  <si>
-    <t>Actores involucrados en la toma de decisiones. ¿Quiénes participan en la priorización de las problemáticas que serán abordadas con innovación?</t>
-  </si>
-  <si>
-    <t>Unidades de innovación dentro de la entidad., Ciudadanía y actores externos (mesas de
+    <t xml:space="preserve">Pregunta 20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actores involucrados en la toma de decisiones. ¿Quiénes participan en la priorización de las problemáticas que serán abordadas con innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidades de innovación dentro de la entidad., Ciudadanía y actores externos (mesas de
  participación, encuestas).</t>
   </si>
   <si>
-    <t>Pregunta 21.</t>
-  </si>
-  <si>
-    <t>Conexión con el desarrollo del proceso de innovación. ¿Cómo se vinculan las áreas de oportunidad priorizadas con el desarrollo de procesos de innovación dentro de su entidad?(Marque todas las opciones que correspondan)</t>
-  </si>
-  <si>
-    <t>Se asignan directamente al laboratorio o unidad de
+    <t xml:space="preserve">Pregunta 21.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conexión con el desarrollo del proceso de innovación. ¿Cómo se vinculan las áreas de oportunidad priorizadas con el desarrollo de procesos de innovación dentro de su entidad?(Marque todas las opciones que correspondan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se asignan directamente al laboratorio o unidad de
  innovación de la entidad, Se asignan equipos específicos para su análisis y
  solución</t>
   </si>
   <si>
-    <t>Pregunta 22.</t>
-  </si>
-  <si>
-    <t>¿Qué metodologías utiliza su entidad para el desarrollo de procesos de innovación?(Marque todas las opciones que correspondan)</t>
-  </si>
-  <si>
-    <t>Laboratorios de innovación.</t>
-  </si>
-  <si>
-    <t>Pregunta 23.</t>
-  </si>
-  <si>
-    <t>¿Cuáles herramientas ha utilizado su entidad para el desarrollo de procesos de innovación?(Marque todas las opciones que apliquen)</t>
-  </si>
-  <si>
-    <t>Cuestionarios o formularios., Storyboard.
+    <t xml:space="preserve">Pregunta 22.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué metodologías utiliza su entidad para el desarrollo de procesos de innovación?(Marque todas las opciones que correspondan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratorios de innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 23.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles herramientas ha utilizado su entidad para el desarrollo de procesos de innovación?(Marque todas las opciones que apliquen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuestionarios o formularios., Storyboard.
  , Proyección de escenarios.
  , Dashboard</t>
   </si>
   <si>
-    <t>Pregunta 24.</t>
-  </si>
-  <si>
-    <t>¿Quiénes participan activamente en los procesos de innovación en su entidad?(Marque todas las opciones que apliquen)</t>
-  </si>
-  <si>
-    <t>Cuerpo de Directivos y tomadores de decisiones., Concretamente unidades o laboratorios de innovación de su entidad.</t>
-  </si>
-  <si>
-    <t>Pregunta 25.</t>
-  </si>
-  <si>
-    <t>¿Qué tan frecuente es la colaboración con actores externos (ciudadanos, academia, sector privado, organismos internacionales) en el desarrollo de innovaciones?</t>
-  </si>
-  <si>
-    <t>Se consultan ocasionalmente para recibir retroalimentación.</t>
-  </si>
-  <si>
-    <t>Pregunta 26.</t>
-  </si>
-  <si>
-    <t>¿Cuáles son los principales factores que han facilitado el desarrollo de procesos de innovación en su entidad?(Marque todas las opciones que apliquen)</t>
-  </si>
-  <si>
-    <t>Apoyo de la alta dirección., Capacidad técnica y formación del equipo., Voluntad a partir del segundo semestre del 2024.</t>
-  </si>
-  <si>
-    <t>Pregunta 27.</t>
-  </si>
-  <si>
-    <t>¿Cuáles son las principales barreras que ha enfrentado su entidad en el desarrollo de procesos de innovación?</t>
-  </si>
-  <si>
-    <t>Resistencia al cambio entre los funcionarios., Falta de tiempo o carga laboral alta.</t>
-  </si>
-  <si>
-    <t>Pregunta 28.</t>
-  </si>
-  <si>
-    <t>Variable 7</t>
-  </si>
-  <si>
-    <t>¿Su entidad diseñó innovaciones encaminadas al cumplimiento de los objetivos y metas de su entidad?</t>
-  </si>
-  <si>
-    <t>Pregunta 29.</t>
-  </si>
-  <si>
-    <t>Variable 8</t>
-  </si>
-  <si>
-    <t>¿Su entidad ha puesto a disposición de todos formación orientada al fortalecimiento de capacidades en innovación?</t>
-  </si>
-  <si>
-    <t>Pregunta 30</t>
-  </si>
-  <si>
-    <t>¿Qué estrategias o iniciativas ha implementado su entidad para fomentar una cultura de innovación entre sus funcionarios y contratistas?</t>
-  </si>
-  <si>
-    <t>Espacios de ideación y cocreación con los equipos internos.</t>
-  </si>
-  <si>
-    <t>Pregunta 31</t>
-  </si>
-  <si>
-    <t>¿De qué manera ha incentivado su entidad la participación de los funcionarios y contratistas en procesos de innovación?</t>
-  </si>
-  <si>
-    <t>Reunión de lluvia de ideas para la ejecución de implementación de estrategias como Mil en un dia desarrollado en el segundo semestre del 2024.</t>
-  </si>
-  <si>
-    <t>Pregunta 32.</t>
-  </si>
-  <si>
-    <t>Variable 9</t>
-  </si>
-  <si>
-    <t>¿Su entidad creó o contó con unidades de innovación como laboratorios, observatorios o semilleros de innovación en su interior?</t>
-  </si>
-  <si>
-    <t>Pregunta 33.</t>
-  </si>
-  <si>
-    <t>Variable 10</t>
-  </si>
-  <si>
-    <t>COMPONENTE 3.</t>
-  </si>
-  <si>
-    <t>¿Alguna de las innovaciones diseñadas fue implementada, o está en proceso de implementación actualmente?
+    <t xml:space="preserve">Pregunta 24.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Quiénes participan activamente en los procesos de innovación en su entidad?(Marque todas las opciones que apliquen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuerpo de Directivos y tomadores de decisiones., Concretamente unidades o laboratorios de innovación de su entidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 25.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué tan frecuente es la colaboración con actores externos (ciudadanos, academia, sector privado, organismos internacionales) en el desarrollo de innovaciones?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se consultan ocasionalmente para recibir retroalimentación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 26.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles son los principales factores que han facilitado el desarrollo de procesos de innovación en su entidad?(Marque todas las opciones que apliquen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyo de la alta dirección., Capacidad técnica y formación del equipo., Voluntad a partir del segundo semestre del 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 27.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles son las principales barreras que ha enfrentado su entidad en el desarrollo de procesos de innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistencia al cambio entre los funcionarios., Falta de tiempo o carga laboral alta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 28.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad diseñó innovaciones encaminadas al cumplimiento de los objetivos y metas de su entidad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 29.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad ha puesto a disposición de todos formación orientada al fortalecimiento de capacidades en innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué estrategias o iniciativas ha implementado su entidad para fomentar una cultura de innovación entre sus funcionarios y contratistas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espacios de ideación y cocreación con los equipos internos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿De qué manera ha incentivado su entidad la participación de los funcionarios y contratistas en procesos de innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunión de lluvia de ideas para la ejecución de implementación de estrategias como Mil en un dia desarrollado en el segundo semestre del 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 32.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad creó o contó con unidades de innovación como laboratorios, observatorios o semilleros de innovación en su interior?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 33.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPONENTE 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Alguna de las innovaciones diseñadas fue implementada, o está en proceso de implementación actualmente?
  Para cada innovación señalada en la pregunta 28, indique:</t>
   </si>
   <si>
-    <t>Pregunta 34.</t>
-  </si>
-  <si>
-    <t>Variable 11</t>
-  </si>
-  <si>
-    <t>¿Cómo se desarrollan y validan las soluciones innovadoras dentro de su entidad?.</t>
-  </si>
-  <si>
-    <t>No se validan ni prueban antes de su implementación.</t>
-  </si>
-  <si>
-    <t>Pregunta 35.</t>
-  </si>
-  <si>
-    <t>Variable 12</t>
-  </si>
-  <si>
-    <t>COMPONENTE 4.</t>
-  </si>
-  <si>
-    <t>¿Existen dentro de la planeación estratégica de la entidad enfoques / líneas / componentes / proyectos / programas o planes relacionados con la gestión del conocimiento?</t>
-  </si>
-  <si>
-    <t>Pregunta 36.</t>
-  </si>
-  <si>
-    <t>Variable 13</t>
-  </si>
-  <si>
-    <t>¿Cuáles son los principales mecanismos y eventos a través de los cuales la entidad comparte su conocimiento en innovación? (Redes internas, boletines, plataformas digitales, eventos, etc.)</t>
-  </si>
-  <si>
-    <t>Boletines o publicaciones institucionales., Plataformas digitales internas o repositorios de conocimiento., Alianzas con otras entidades o redes externas de innovación.</t>
-  </si>
-  <si>
-    <t>Ingrese un archivo de soporte que justifique su respuesta (PDF, Word o Excel)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Registro de publicaciones en canales de difusión de la Alcaldía Local de Barrios Unidos.pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>Pregunta 37.</t>
-  </si>
-  <si>
-    <t>¿Cómo mide su entidad el impacto de los mecanismos de difusión de conocimiento en innovación?</t>
-  </si>
-  <si>
-    <t>No se mide el impacto.</t>
-  </si>
-  <si>
-    <t>Pregunta 38.</t>
-  </si>
-  <si>
-    <t>¿Qué tipo de documentos o productos utiliza su entidad para capturar aprendizajes en innovación?</t>
-  </si>
-  <si>
-    <t>No se documentan aprendizajes de innovación.</t>
-  </si>
-  <si>
-    <t>Pregunta 39.</t>
-  </si>
-  <si>
-    <t>¿Cómo mide su entidad el impacto de la documentación y su sistematización en la innovación?</t>
-  </si>
-  <si>
-    <t>Pregunta 40.</t>
-  </si>
-  <si>
-    <t>Variable 14</t>
-  </si>
-  <si>
-    <t>¿Su entidad desarrolló algún instrumento para hacer monitoreo y seguimiento a las innovaciones implementadas?</t>
-  </si>
-  <si>
-    <t>Pregunta 7.</t>
-  </si>
-  <si>
-    <t>Total de funcionarios para 2023.</t>
+    <t xml:space="preserve">Pregunta 34.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo se desarrollan y validan las soluciones innovadoras dentro de su entidad?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se validan ni prueban antes de su implementación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 35.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPONENTE 4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Existen dentro de la planeación estratégica de la entidad enfoques / líneas / componentes / proyectos / programas o planes relacionados con la gestión del conocimiento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 36.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles son los principales mecanismos y eventos a través de los cuales la entidad comparte su conocimiento en innovación? (Redes internas, boletines, plataformas digitales, eventos, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boletines o publicaciones institucionales., Plataformas digitales internas o repositorios de conocimiento., Alianzas con otras entidades o redes externas de innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese un archivo de soporte que justifique su respuesta (PDF, Word o Excel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro de publicaciones en canales de difusión de la Alcaldía Local de Barrios Unidos.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 37.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo mide su entidad el impacto de los mecanismos de difusión de conocimiento en innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se mide el impacto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 38.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué tipo de documentos o productos utiliza su entidad para capturar aprendizajes en innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se documentan aprendizajes de innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 39.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo mide su entidad el impacto de la documentación y su sistematización en la innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 40.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad desarrolló algún instrumento para hacer monitoreo y seguimiento a las innovaciones implementadas?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -626,31 +604,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF356854"/>
-        <bgColor rgb="FF356854"/>
+        <bgColor rgb="FF284E3F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF6F8F9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F8F9"/>
-        <bgColor rgb="FFF6F8F9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="6">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -665,7 +643,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF356854"/>
       </left>
@@ -680,7 +658,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF356854"/>
       </left>
@@ -695,7 +673,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -710,290 +699,281 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFF6F8F9"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF356854"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF284E3F"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -1001,33 +981,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -1040,13 +1011,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1056,15 +1021,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -1072,7 +1035,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1080,53 +1042,35 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FE942-0EF3-4792-853A-47D91D74AAA0}">
-  <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E5EB5B-AE9C-4D01-9BF6-6EA7113E8CEE}">
-  <sheetPr codeName="Hoja2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:S1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="12.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,14 +1140,14 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1227,25 +1171,25 @@
       <c r="J2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="6" t="s">
@@ -1264,14 +1208,14 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
     </row>
-    <row r="3" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1295,25 +1239,25 @@
       <c r="J3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="R3" s="9" t="s">
@@ -1332,14 +1276,14 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
     </row>
-    <row r="4" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1363,19 +1307,19 @@
       <c r="J4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="6" t="n">
         <v>4</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -1398,14 +1342,14 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
     </row>
-    <row r="5" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1429,19 +1373,19 @@
       <c r="J5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="6" t="n">
         <v>4</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P5" s="6" t="s">
@@ -1464,12 +1408,12 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
     </row>
-    <row r="6" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="7">
+      <c r="C6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1489,15 +1433,15 @@
         <v>48</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="6">
+      <c r="K6" s="6" t="n">
         <v>4</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="6">
+      <c r="M6" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="6">
+      <c r="O6" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P6" s="6"/>
@@ -1516,14 +1460,14 @@
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
     </row>
-    <row r="7" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1541,37 +1485,37 @@
       <c r="H7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T7" s="8"/>
@@ -1586,14 +1530,14 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="10" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1617,31 +1561,31 @@
       <c r="J8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="9" t="n">
         <v>5</v>
       </c>
       <c r="T8" s="8"/>
@@ -1656,14 +1600,14 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="7" t="n">
         <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1687,19 +1631,19 @@
       <c r="J9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="6" t="n">
         <v>4</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="6" t="n">
         <v>4</v>
       </c>
       <c r="P9" s="6" t="s">
@@ -1722,14 +1666,14 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="7" t="n">
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1753,19 +1697,19 @@
       <c r="J10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="6" t="n">
         <v>4</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="6" t="n">
         <v>4</v>
       </c>
       <c r="P10" s="6" t="s">
@@ -1788,12 +1732,12 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="7">
+      <c r="C11" s="7" t="n">
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1811,15 +1755,15 @@
         <v>48</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6">
+      <c r="K11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="6">
+      <c r="M11" s="6" t="n">
         <v>4</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="6">
+      <c r="O11" s="6" t="n">
         <v>4</v>
       </c>
       <c r="P11" s="6"/>
@@ -1838,14 +1782,14 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="7" t="n">
         <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1863,37 +1807,37 @@
       <c r="H12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T12" s="8"/>
@@ -1908,42 +1852,42 @@
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6">
+      <c r="K13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="6">
+      <c r="M13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="6">
+      <c r="O13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="6">
+      <c r="Q13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="6">
+      <c r="S13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="T13" s="8"/>
@@ -1958,62 +1902,62 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="7" t="n">
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T14" s="8"/>
@@ -2028,50 +1972,50 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="10" t="n">
         <v>24</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="9" t="n">
         <v>314</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="9" t="n">
         <v>5</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="9" t="n">
         <v>5</v>
       </c>
       <c r="N15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="9" t="n">
         <v>5</v>
       </c>
       <c r="P15" s="9" t="s">
@@ -2094,50 +2038,50 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="9" t="n">
         <v>471</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="9" t="n">
         <v>5</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="9" t="n">
         <v>5</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="9" t="n">
         <v>5</v>
       </c>
       <c r="P16" s="9" t="s">
@@ -2160,62 +2104,62 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="7" t="n">
         <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="6" t="n">
         <v>2</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="6" t="n">
         <v>3</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="6" t="n">
         <v>2</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="6" t="n">
         <v>3</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="T17" s="8"/>
@@ -2230,62 +2174,62 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="9" t="n">
         <v>69</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="10" t="n">
         <v>27</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="9" t="n">
         <v>2</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="9" t="n">
         <v>3</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="9" t="n">
         <v>2</v>
       </c>
       <c r="N18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="9" t="n">
         <v>1</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="9" t="n">
         <v>2</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="9" t="n">
         <v>1</v>
       </c>
       <c r="T18" s="8"/>
@@ -2300,27 +2244,27 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="7" t="n">
         <v>29</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>24</v>
@@ -2331,25 +2275,25 @@
       <c r="J19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="6" t="s">
@@ -2368,27 +2312,27 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="10" t="n">
         <v>30</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>24</v>
@@ -2399,25 +2343,25 @@
       <c r="J20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="9" t="n">
         <v>1</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="9" t="n">
         <v>1</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="9" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="9" t="s">
@@ -2436,27 +2380,27 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="7" t="n">
         <v>31</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>24</v>
@@ -2467,31 +2411,31 @@
       <c r="J21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="T21" s="8"/>
@@ -2506,30 +2450,38 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T22" s="20"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T22" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" xr:uid="{58B6B8DB-A490-470B-833B-916852E0204E}"/>
-    <hyperlink ref="I11" r:id="rId2" xr:uid="{1C3026C4-5BEC-4241-A428-32C89C817A6C}"/>
+    <hyperlink ref="I6" r:id="rId1" display="Presupuesto 2023-2024.zip"/>
+    <hyperlink ref="I11" r:id="rId2" display="Presupuesto 2023-2024.zip"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2556E-3DB6-4593-A2B0-62A65E923BEF}">
-  <sheetPr codeName="Hoja3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J17" sqref="J1:S1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -2599,56 +2551,56 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="6">
-        <v>5</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="K2" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R2" s="6" t="s">
@@ -2656,56 +2608,56 @@
       </c>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="9" t="n">
         <v>2</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="9" t="n">
         <v>2</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="R3" s="9" t="s">
@@ -2713,56 +2665,56 @@
       </c>
       <c r="S3" s="9"/>
     </row>
-    <row r="4" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="6" t="n">
         <v>4</v>
       </c>
       <c r="R4" s="6" t="s">
@@ -2770,615 +2722,615 @@
       </c>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="K5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="6" t="n">
         <v>96</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="6" t="n">
         <v>97</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6">
-        <v>3</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="6">
-        <v>5</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6">
-        <v>3</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6">
-        <v>3</v>
-      </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6">
-        <v>98</v>
-      </c>
-      <c r="C8" s="7">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="6">
+      <c r="K8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="6">
+      <c r="O8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="Q8" s="6">
+      <c r="Q8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="6"/>
-      <c r="S8" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="9" t="n">
         <v>99</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="10" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="9">
+      <c r="K9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="14"/>
-      <c r="M9" s="9">
+      <c r="M9" s="9" t="n">
         <v>5</v>
       </c>
       <c r="N9" s="9"/>
-      <c r="O9" s="9">
+      <c r="O9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="9"/>
-      <c r="Q9" s="9">
+      <c r="Q9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="9"/>
-      <c r="S9" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="10" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="9">
+      <c r="K10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="14"/>
-      <c r="M10" s="9">
+      <c r="M10" s="9" t="n">
         <v>5</v>
       </c>
       <c r="N10" s="9"/>
-      <c r="O10" s="9">
+      <c r="O10" s="9" t="n">
         <v>3</v>
       </c>
       <c r="P10" s="9"/>
-      <c r="Q10" s="9">
+      <c r="Q10" s="9" t="n">
         <v>3</v>
       </c>
       <c r="R10" s="9"/>
-      <c r="S10" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="6" t="n">
         <v>101</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6">
-        <v>5</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="6">
+      <c r="K11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="6">
+      <c r="O11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6">
+      <c r="Q11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="9" t="n">
         <v>102</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="10" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="9">
+      <c r="K12" s="9" t="n">
         <v>3</v>
       </c>
       <c r="L12" s="14"/>
-      <c r="M12" s="9">
+      <c r="M12" s="9" t="n">
         <v>3</v>
       </c>
       <c r="N12" s="9"/>
-      <c r="O12" s="9">
+      <c r="O12" s="9" t="n">
         <v>1</v>
       </c>
       <c r="P12" s="9"/>
-      <c r="Q12" s="9">
+      <c r="Q12" s="9" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="9"/>
-      <c r="S12" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="9" t="n">
         <v>103</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="10" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="9">
+      <c r="K13" s="9" t="n">
         <v>3</v>
       </c>
       <c r="L13" s="14"/>
-      <c r="M13" s="9">
+      <c r="M13" s="9" t="n">
         <v>3</v>
       </c>
       <c r="N13" s="9"/>
-      <c r="O13" s="9">
+      <c r="O13" s="9" t="n">
         <v>3</v>
       </c>
       <c r="P13" s="9"/>
-      <c r="Q13" s="9">
+      <c r="Q13" s="9" t="n">
         <v>3</v>
       </c>
       <c r="R13" s="9"/>
-      <c r="S13" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="6" t="n">
         <v>104</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="6">
-        <v>3</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="6">
+      <c r="K14" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="6">
+      <c r="O14" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="6">
+      <c r="Q14" s="6" t="n">
         <v>4</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="6">
-        <v>1</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="6">
+      <c r="K15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="6" t="n">
         <v>5</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="6">
+      <c r="O15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6">
+      <c r="Q15" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="6">
-        <v>5</v>
-      </c>
-      <c r="L16" s="12" t="s">
+      <c r="K16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="6" t="n">
         <v>4</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="6" t="n">
         <v>4</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="6" t="n">
         <v>4</v>
       </c>
       <c r="R16" s="6" t="s">
@@ -3386,30 +3338,30 @@
       </c>
       <c r="S16" s="6"/>
     </row>
-    <row r="17" spans="1:19" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="7" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>25</v>
@@ -3417,25 +3369,25 @@
       <c r="J17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
-      <c r="L17" s="12" t="s">
+      <c r="K17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="6" t="s">
@@ -3443,142 +3395,142 @@
       </c>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" spans="1:19" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="10">
+      <c r="C18" s="10" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="9">
+      <c r="K18" s="9" t="n">
         <v>3</v>
       </c>
       <c r="L18" s="14"/>
-      <c r="M18" s="9">
+      <c r="M18" s="9" t="n">
         <v>3</v>
       </c>
       <c r="N18" s="9"/>
-      <c r="O18" s="9">
+      <c r="O18" s="9" t="n">
         <v>3</v>
       </c>
       <c r="P18" s="9"/>
-      <c r="Q18" s="9">
+      <c r="Q18" s="9" t="n">
         <v>3</v>
       </c>
       <c r="R18" s="9"/>
-      <c r="S18" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="7">
+      <c r="C19" s="7" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="6">
+      <c r="K19" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="6">
+      <c r="L19" s="13"/>
+      <c r="M19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="6">
+      <c r="O19" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6">
+      <c r="Q19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="6" t="n">
         <v>193</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="7" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="6">
-        <v>3</v>
-      </c>
-      <c r="L20" s="12" t="s">
+      <c r="K20" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="6" t="n">
         <v>3</v>
       </c>
       <c r="R20" s="6" t="s">
@@ -3587,22 +3539,30 @@
       <c r="S20" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C58550-5740-4607-A207-C1BD96DCC0F5}">
-  <sheetPr codeName="Hoja4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3673,125 +3633,133 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2" spans="1:31" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="6" t="n">
         <v>151</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="6">
-        <v>3</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="K2" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="13"/>
-    </row>
-    <row r="3" spans="1:31" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="7">
+      <c r="C3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="16">
+      <c r="K3" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L3" s="16"/>
-      <c r="M3" s="16">
+      <c r="M3" s="16" t="n">
         <v>1</v>
       </c>
       <c r="N3" s="16"/>
-      <c r="O3" s="16">
+      <c r="O3" s="16" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="16"/>
-      <c r="Q3" s="16">
+      <c r="Q3" s="16" t="n">
         <v>1</v>
       </c>
       <c r="R3" s="16"/>
-      <c r="S3" s="16">
+      <c r="S3" s="16" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BA101E-EF71-4DED-9C31-B44D8AD56C18}">
-  <sheetPr codeName="Hoja5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3799,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -3862,30 +3830,30 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2" spans="1:31" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="16" t="n">
         <v>153</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>25</v>
@@ -3893,25 +3861,25 @@
       <c r="J2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="16" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="16" t="n">
         <v>1</v>
       </c>
       <c r="P2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="16" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="16" t="s">
@@ -3919,261 +3887,261 @@
       </c>
       <c r="S2" s="16"/>
     </row>
-    <row r="3" spans="1:31" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="7">
+      <c r="C3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>52</v>
       </c>
       <c r="I3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16">
-        <v>5</v>
-      </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="16">
-        <v>5</v>
-      </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16">
-        <v>5</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16">
-        <v>5</v>
-      </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="7">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J4" s="16"/>
-      <c r="K4" s="16">
+      <c r="K4" s="16" t="n">
         <v>5</v>
       </c>
       <c r="L4" s="17"/>
-      <c r="M4" s="16">
+      <c r="M4" s="16" t="n">
         <v>5</v>
       </c>
       <c r="N4" s="16"/>
-      <c r="O4" s="16">
+      <c r="O4" s="16" t="n">
         <v>5</v>
       </c>
       <c r="P4" s="16"/>
-      <c r="Q4" s="16">
+      <c r="Q4" s="16" t="n">
         <v>5</v>
       </c>
       <c r="R4" s="16"/>
-      <c r="S4" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10">
+      <c r="S4" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="10" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15">
-        <v>1</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="15">
-        <v>1</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15">
-        <v>1</v>
-      </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15">
-        <v>1</v>
-      </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10">
+      <c r="I5" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="10" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15">
-        <v>1</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="15">
-        <v>1</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15">
-        <v>1</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15">
-        <v>1</v>
-      </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="16"/>
-      <c r="C7" s="7">
+      <c r="C7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J7" s="16"/>
-      <c r="K7" s="15">
-        <v>1</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="15">
-        <v>1</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15">
-        <v>1</v>
-      </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15">
-        <v>1</v>
-      </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="16" t="n">
         <v>167</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="7" t="n">
         <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>25</v>
@@ -4181,38 +4149,44 @@
       <c r="J8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="16" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="16" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="16" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="16" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{1FE10138-2639-4883-A1E4-1091643310B7}"/>
+    <hyperlink ref="I4" r:id="rId1" display="Registro de publicaciones en canales de difusión de la Alcaldía Local de Barrios Unidos.pdf"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>